--- a/Documentacion de Pruebas Excel.xlsx
+++ b/Documentacion de Pruebas Excel.xlsx
@@ -8,49 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJ\Desktop\Trabajos U\GestionDeInventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55335525-B41A-4A41-9889-4F115398116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E688EB41-9A72-49A6-B698-654C2DC24CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" y ejecución de casos de prueba" sheetId="1" r:id="rId1"/>
-    <sheet name=" y ejecución de casos de pr (3)" sheetId="4" r:id="rId2"/>
-    <sheet name=" y ejecución de casos de pr (2)" sheetId="3" r:id="rId3"/>
-    <sheet name=" y ejecución de casos de pr (4)" sheetId="5" r:id="rId4"/>
-    <sheet name="- Descargo de responsabilidad -" sheetId="2" r:id="rId5"/>
+    <sheet name="Gráfico1" sheetId="6" r:id="rId1"/>
+    <sheet name=" y ejecución de casos de prueba" sheetId="1" r:id="rId2"/>
+    <sheet name=" y ejecución de casos de pr (3)" sheetId="4" r:id="rId3"/>
+    <sheet name=" y ejecución de casos de pr (2)" sheetId="3" r:id="rId4"/>
+    <sheet name=" y ejecución de casos de pr (4)" sheetId="5" r:id="rId5"/>
+    <sheet name="- Descargo de responsabilidad -" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_ITEM1" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM1" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM1" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM1" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM1" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM1" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM1">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_ITEM2" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM2" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM2" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM2" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM2" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM2" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM2">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_ITEM3" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM3" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM3" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM3" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM3" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM3" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM3">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_ITEM4" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM4" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM4" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM4" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM4" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM4" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM4">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_ITEM5" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM5" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM5" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM5" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM5" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM5" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM5">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_ITEM6" localSheetId="2">' y ejecución de casos de pr (2)'!#REF!</definedName>
-    <definedName name="_ITEM6" localSheetId="1">' y ejecución de casos de pr (3)'!#REF!</definedName>
-    <definedName name="_ITEM6" localSheetId="3">' y ejecución de casos de pr (4)'!#REF!</definedName>
+    <definedName name="_ITEM6" localSheetId="3">' y ejecución de casos de pr (2)'!#REF!</definedName>
+    <definedName name="_ITEM6" localSheetId="2">' y ejecución de casos de pr (3)'!#REF!</definedName>
+    <definedName name="_ITEM6" localSheetId="4">' y ejecución de casos de pr (4)'!#REF!</definedName>
     <definedName name="_ITEM6">' y ejecución de casos de prueba'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">' y ejecución de casos de pr (2)'!$B$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">' y ejecución de casos de pr (3)'!$B$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">' y ejecución de casos de pr (4)'!$B$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' y ejecución de casos de prueba'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">' y ejecución de casos de pr (2)'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">' y ejecución de casos de pr (3)'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">' y ejecución de casos de pr (4)'!$B$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">' y ejecución de casos de prueba'!$B$1:$H$18</definedName>
     <definedName name="Type">'[1]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>PLANTILLA DE PLANIFICACIÓN Y EJECUCIÓN DE CASOS DE PRUEBA</t>
   </si>
@@ -304,6 +305,12 @@
   </si>
   <si>
     <t xml:space="preserve">El producto se actualiza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos </t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
   </si>
 </sst>
 </file>
@@ -688,13 +695,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,6 +858,852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>' y ejecución de casos de prueba'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DESCRIPCIÓN DE LA PRUEBA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>' y ejecución de casos de prueba'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E035-4813-BA34-4A4858F9AE6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1308344176"/>
+        <c:axId val="1308344656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1308344176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308344656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1308344656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308344176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FDAF2D54-209C-4241-BF8E-F8C0A5FED26E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6059714"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D0D7F1-5692-1482-8062-358DB6F9D91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,9 +1992,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1385,7 +2238,7 @@
     <row r="5" spans="1:156" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="28"/>
@@ -1441,7 +2294,9 @@
         <v>69</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="F8" s="32"/>
       <c r="G8" s="19"/>
       <c r="H8" s="32"/>
@@ -1612,15 +2467,15 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -10459,9 +11314,9 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="88" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10761,7 +11616,9 @@
         <v>68</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="32"/>
       <c r="G8" s="19"/>
       <c r="H8" s="32"/>
@@ -10932,15 +11789,15 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -19748,13 +20605,13 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19780,7 +20637,7 @@
   </sheetPr>
   <dimension ref="A1:EZ900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -20253,15 +21110,15 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -29069,13 +29926,13 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29574,15 +30431,15 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
